--- a/tables/histogram_delimiters.xlsx
+++ b/tables/histogram_delimiters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Documents/mg_analysis_notebook/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4891160F-2107-7A49-BAAC-AFC9EF875B89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DA99AF-BCE5-3F48-A4AC-01B3BAD70877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="-25260" windowWidth="25040" windowHeight="13980" xr2:uid="{0204D40D-CD5E-7F48-BB1B-916F17CC27F0}"/>
   </bookViews>

--- a/tables/histogram_delimiters.xlsx
+++ b/tables/histogram_delimiters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Documents/mg_analysis_notebook/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DA99AF-BCE5-3F48-A4AC-01B3BAD70877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19E5BDC-9DAA-004A-A5C7-850821B62DAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="-25260" windowWidth="25040" windowHeight="13980" xr2:uid="{0204D40D-CD5E-7F48-BB1B-916F17CC27F0}"/>
+    <workbookView xWindow="220" yWindow="440" windowWidth="25040" windowHeight="13980" xr2:uid="{0204D40D-CD5E-7F48-BB1B-916F17CC27F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Start</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Wires</t>
+  </si>
+  <si>
+    <t>grids</t>
   </si>
 </sst>
 </file>
@@ -394,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEF214D-5184-6F40-903F-A04666B60090}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -416,7 +419,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +437,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>460</v>
       </c>
@@ -442,13 +445,22 @@
         <v>810</v>
       </c>
       <c r="C3">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D3">
+        <v>2596</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>460</v>
+      </c>
+      <c r="H3">
         <v>2600</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>820</v>
       </c>
@@ -456,52 +468,88 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1170</v>
       </c>
       <c r="B5">
         <v>1520</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>460</v>
+      </c>
+      <c r="K5">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1525</v>
       </c>
       <c r="B6">
         <v>1887</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>810</v>
+      </c>
+      <c r="K6">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1887</v>
       </c>
       <c r="B7">
         <v>2241</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1160</v>
+      </c>
+      <c r="K7">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2249</v>
       </c>
       <c r="B8">
         <v>2610</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1510</v>
+      </c>
+      <c r="K8">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2610</v>
       </c>
       <c r="B9">
         <v>2965</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1882</v>
+      </c>
+      <c r="K9">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2970</v>
       </c>
       <c r="B10">
         <v>3320</v>
+      </c>
+      <c r="J10">
+        <v>2238</v>
+      </c>
+      <c r="K10">
+        <v>2575</v>
       </c>
     </row>
   </sheetData>
